--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3398.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3398.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.905191205298566</v>
+        <v>1.218632340431213</v>
       </c>
       <c r="B1">
-        <v>2.133451732672283</v>
+        <v>6.444764614105225</v>
       </c>
       <c r="C1">
-        <v>2.286020395234618</v>
+        <v>3.698637247085571</v>
       </c>
       <c r="D1">
-        <v>3.102334917922845</v>
+        <v>1.655169606208801</v>
       </c>
       <c r="E1">
-        <v>3.562935662833973</v>
+        <v>1.16774594783783</v>
       </c>
     </row>
   </sheetData>
